--- a/experimental-data/Biomass CscB-SPS original strain.xlsx
+++ b/experimental-data/Biomass CscB-SPS original strain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nufeb-cyano-e-coli\experimental-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8EDFD45-7580-4E94-AE8E-BEA220FA2C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F4787-EB12-40FB-B5E6-E9B60C6F9E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{BA99FB0C-938F-41CA-8338-3453C9BE46F2}"/>
   </bookViews>
@@ -10987,7 +10987,7 @@
         <v>0.28033333333333332</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:K3" si="0">AVERAGE(D3:D5)</f>
+        <f t="shared" ref="J3" si="0">AVERAGE(D3:D5)</f>
         <v>0.28066666666666668</v>
       </c>
       <c r="K3">
@@ -11250,7 +11250,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11691,7 +11691,7 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="C14" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D14" s="1">
         <v>7.3679999999999995E-2</v>
@@ -11724,7 +11724,7 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="C15" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="1">
         <v>9.2600000000000002E-2</v>
@@ -11757,7 +11757,7 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="C16" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D16">
         <v>7.5788999999999995E-2</v>
@@ -11790,7 +11790,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="C17" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="1">
         <v>0.12421</v>
@@ -11823,7 +11823,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="C18" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D18" s="1">
         <v>0.13684199999999999</v>
@@ -11856,7 +11856,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="C19" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D19">
         <v>0.12</v>
@@ -11889,7 +11889,7 @@
         <v>0.59</v>
       </c>
       <c r="C20" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="1">
         <v>0.18315999999999999</v>
@@ -11922,7 +11922,7 @@
         <v>0.6</v>
       </c>
       <c r="C21" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D21" s="1">
         <v>0.20841999999999999</v>
@@ -11955,7 +11955,7 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="C22" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
         <v>0.17684</v>
@@ -11988,7 +11988,7 @@
         <v>1.56</v>
       </c>
       <c r="C23" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D23" s="1">
         <v>0.37263000000000002</v>
@@ -12021,7 +12021,7 @@
         <v>1.39</v>
       </c>
       <c r="C24" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D24" s="1">
         <v>0.41263</v>
@@ -12054,7 +12054,7 @@
         <v>1.47</v>
       </c>
       <c r="C25" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D25">
         <v>0.38316</v>
@@ -12087,7 +12087,7 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="C26" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>7.1580000000000005E-2</v>
@@ -12120,7 +12120,7 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="C27" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>8.8419999999999999E-2</v>
@@ -12153,7 +12153,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="C28" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>7.1579000000000004E-2</v>
@@ -12186,7 +12186,7 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="C29" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>0.12631999999999999</v>
@@ -12219,7 +12219,7 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="C30" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>0.14105000000000001</v>
@@ -12252,7 +12252,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="C31" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0.12</v>
@@ -12285,7 +12285,7 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="C32" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>0.17052999999999999</v>
@@ -12318,7 +12318,7 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="C33" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>0.20421</v>
@@ -12351,7 +12351,7 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="C34" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0.16632</v>
@@ -12384,7 +12384,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C35" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>0.30315999999999999</v>
@@ -12417,7 +12417,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C36" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>0.36631999999999998</v>
@@ -12450,7 +12450,7 @@
         <v>1.19</v>
       </c>
       <c r="C37" s="5">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0.33052999999999999</v>
